--- a/matrizestados.xlsx
+++ b/matrizestados.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\5663296\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\5674867\Downloads\ImageAutomator\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="32">
   <si>
     <t>ℓ</t>
   </si>
@@ -47,25 +47,79 @@
     <t>q3</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
     <t>{q1}</t>
   </si>
   <si>
     <t>{ }</t>
   </si>
   <si>
-    <t>{q0}</t>
-  </si>
-  <si>
     <t>{q2}</t>
   </si>
   <si>
     <t>{q3}</t>
+  </si>
+  <si>
+    <t>q4</t>
+  </si>
+  <si>
+    <t>q5</t>
+  </si>
+  <si>
+    <t>q6</t>
+  </si>
+  <si>
+    <t>q7</t>
+  </si>
+  <si>
+    <t>q8</t>
+  </si>
+  <si>
+    <t>q9</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>{q7}</t>
+  </si>
+  <si>
+    <t>{q4}</t>
+  </si>
+  <si>
+    <t>{q6}</t>
+  </si>
+  <si>
+    <t>{q5}</t>
+  </si>
+  <si>
+    <t>{q8}</t>
+  </si>
+  <si>
+    <t>{q9}</t>
   </si>
 </sst>
 </file>
@@ -116,12 +170,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -130,6 +181,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,71 +477,337 @@
     <col min="2" max="2" width="3.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
+      <c r="I3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J17" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
